--- a/Project/Addresses table_recovered.xlsx
+++ b/Project/Addresses table_recovered.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OTUS\OTUS_NE_Basic\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD6A18D-2812-4C58-87AF-6E6B4B0620BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42EFB777-D5A9-4C32-AC92-D8F600A654F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21720" yWindow="-32400" windowWidth="21840" windowHeight="38040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
+    <sheet name="Wildcard masks" sheetId="4" r:id="rId3"/>
     <sheet name="Configs" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="300">
   <si>
     <t>VLAN</t>
   </si>
@@ -384,9 +384,6 @@
     <t>Portsecurity</t>
   </si>
   <si>
-    <t>WLAN</t>
-  </si>
-  <si>
     <t>Address Table</t>
   </si>
   <si>
@@ -498,15 +495,9 @@
     <t>inter vlan routing (SVI)</t>
   </si>
   <si>
-    <t>Routes via Loopbacks</t>
-  </si>
-  <si>
     <t>ISP + Services + NAT</t>
   </si>
   <si>
-    <t>LLDP</t>
-  </si>
-  <si>
     <t>NTP</t>
   </si>
   <si>
@@ -841,6 +832,105 @@
   </si>
   <si>
     <t>/0</t>
+  </si>
+  <si>
+    <t>wildcart mask</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>CDP</t>
+  </si>
+  <si>
+    <t>router ospf 1</t>
+  </si>
+  <si>
+    <t>router-id 1.1.1.1</t>
+  </si>
+  <si>
+    <t>log-adjacency-changes</t>
+  </si>
+  <si>
+    <t>network 192.168.0.0 0.0.1.255 area 0</t>
+  </si>
+  <si>
+    <t>network 192.168.200.0 0.0.0.127 area 0</t>
+  </si>
+  <si>
+    <t>network 192.168.13.0 0.0.0.255 area 0</t>
+  </si>
+  <si>
+    <t>network 192.168.15.0 0.0.0.15 area 0</t>
+  </si>
+  <si>
+    <t>network 192.168.17.0 0.0.0.15 area 0</t>
+  </si>
+  <si>
+    <t>interface GigabitEthernet1/1/1</t>
+  </si>
+  <si>
+    <t>no switchport</t>
+  </si>
+  <si>
+    <t>ip address 10.1.1.1 255.255.255.252</t>
+  </si>
+  <si>
+    <t>ip ospf 1 area 0</t>
+  </si>
+  <si>
+    <t>interface GigabitEthernet1/1/2</t>
+  </si>
+  <si>
+    <t>ip address 10.0.0.1 255.255.255.252</t>
+  </si>
+  <si>
+    <t>interface GigabitEthernet1/1/3</t>
+  </si>
+  <si>
+    <t>ip address 10.3.1.1 255.255.255.252</t>
+  </si>
+  <si>
+    <t>ip address 10.1.2.1 255.255.255.252</t>
+  </si>
+  <si>
+    <t>ip address 10.0.0.2 255.255.255.252</t>
+  </si>
+  <si>
+    <t>ip address 10.3.2.1 255.255.255.252</t>
+  </si>
+  <si>
+    <t>router-id 2.2.2.2</t>
+  </si>
+  <si>
+    <t>ip address 10.1.1.2 255.255.255.252</t>
+  </si>
+  <si>
+    <t>ip address 10.0.2.1 255.255.255.252</t>
+  </si>
+  <si>
+    <t>ip address 10.3.2.2 255.255.255.252</t>
+  </si>
+  <si>
+    <t>router-id 3.3.3.3</t>
+  </si>
+  <si>
+    <t>network 192.168.113.0 0.0.0.15 area 0</t>
+  </si>
+  <si>
+    <t>network 192.168.210.0 0.0.0.127 area 0</t>
+  </si>
+  <si>
+    <t>ip address 10.1.2.2 255.255.255.252</t>
+  </si>
+  <si>
+    <t>ip address 10.0.2.2 255.255.255.252</t>
+  </si>
+  <si>
+    <t>ip address 10.3.1.2 255.255.255.252</t>
+  </si>
+  <si>
+    <t>router-id 4.4.4.4</t>
   </si>
 </sst>
 </file>
@@ -877,7 +967,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -914,6 +1004,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="27">
     <border>
@@ -1277,7 +1379,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1299,13 +1401,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1378,6 +1478,9 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1660,8 +1763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH48"/>
   <sheetViews>
-    <sheetView topLeftCell="F6" workbookViewId="0">
-      <selection activeCell="L44" sqref="L44"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1670,6 +1773,7 @@
     <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="48" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.5703125" bestFit="1" customWidth="1"/>
@@ -1685,53 +1789,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="E1" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="H1" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="31"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="29"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="H2" s="20" t="s">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="H2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="22"/>
-      <c r="M2" s="32" t="s">
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="20"/>
+      <c r="M2" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="34"/>
-      <c r="R2" s="26" t="s">
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="32"/>
+      <c r="R2" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="28"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="26"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -1746,6 +1853,9 @@
       <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>199</v>
+      </c>
       <c r="H3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1796,6 +1906,9 @@
       <c r="D4" s="1" t="s">
         <v>98</v>
       </c>
+      <c r="E4" s="1" t="s">
+        <v>197</v>
+      </c>
       <c r="H4" s="3" t="s">
         <v>21</v>
       </c>
@@ -1846,24 +1959,27 @@
       <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="25"/>
-      <c r="M5" s="23" t="s">
+      <c r="E5" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="23"/>
+      <c r="M5" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="25"/>
-      <c r="R5" s="35" t="s">
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="23"/>
+      <c r="R5" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="36"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="34"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -1878,40 +1994,43 @@
       <c r="D6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="E6" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H6" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="15" t="s">
+      <c r="K6" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="M6" s="14" t="s">
+      <c r="M6" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="N6" s="12" t="s">
+      <c r="N6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="O6" s="12" t="s">
+      <c r="O6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="P6" s="15" t="s">
+      <c r="P6" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="R6" s="14" t="s">
+      <c r="R6" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="S6" s="12" t="s">
+      <c r="S6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="T6" s="12" t="s">
+      <c r="T6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="U6" s="15" t="s">
+      <c r="U6" s="14" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1928,6 +2047,9 @@
       <c r="D7" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="E7" s="1" t="s">
+        <v>190</v>
+      </c>
       <c r="H7" s="3" t="s">
         <v>24</v>
       </c>
@@ -1962,46 +2084,49 @@
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
+      <c r="A8" s="12">
         <v>113</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>137</v>
+      <c r="D8" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K8" s="5"/>
       <c r="M8" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="P8" s="5"/>
       <c r="R8" s="3" t="s">
         <v>86</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="U8" s="5"/>
     </row>
@@ -2018,82 +2143,88 @@
       <c r="D9" s="1" t="s">
         <v>78</v>
       </c>
+      <c r="E9" s="1" t="s">
+        <v>195</v>
+      </c>
       <c r="H9" s="6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K9" s="8"/>
       <c r="M9" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P9" s="5"/>
       <c r="R9" s="3" t="s">
         <v>87</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="U9" s="5"/>
     </row>
     <row r="10" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13">
+      <c r="A10" s="12">
         <v>210</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="1" t="s">
         <v>82</v>
       </c>
+      <c r="E10" s="1" t="s">
+        <v>195</v>
+      </c>
       <c r="H10" s="6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K10" s="8"/>
       <c r="M10" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P10" s="5"/>
       <c r="R10" s="3" t="s">
         <v>88</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U10" s="5"/>
       <c r="W10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2109,24 +2240,27 @@
       <c r="D11" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="E11" s="1" t="s">
+        <v>190</v>
+      </c>
       <c r="M11" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P11" s="5"/>
       <c r="R11" s="3" t="s">
         <v>89</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="U11" s="5"/>
     </row>
@@ -2143,40 +2277,46 @@
       <c r="D12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="26" t="s">
+      <c r="E12" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H12" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="28"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="26"/>
       <c r="M12" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P12" s="5"/>
       <c r="R12" s="3" t="s">
         <v>90</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="U12" s="5"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="17">
+      <c r="A13" s="45">
         <v>777</v>
       </c>
-      <c r="C13" s="17" t="s">
-        <v>138</v>
-      </c>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
       <c r="H13" s="3" t="s">
         <v>1</v>
       </c>
@@ -2193,20 +2333,20 @@
         <v>39</v>
       </c>
       <c r="N13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P13" s="5"/>
       <c r="R13" s="3" t="s">
         <v>91</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="U13" s="5"/>
     </row>
@@ -2227,11 +2367,11 @@
         <v>40</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O14" s="1"/>
       <c r="P14" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>92</v>
@@ -2241,12 +2381,12 @@
       <c r="U14" s="5"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="H15" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="36"/>
+      <c r="H15" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="34"/>
       <c r="M15" s="3" t="s">
         <v>41</v>
       </c>
@@ -2261,16 +2401,16 @@
       <c r="U15" s="5"/>
     </row>
     <row r="16" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H16" s="37" t="s">
+      <c r="H16" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="I16" s="38" t="s">
+      <c r="I16" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="J16" s="38" t="s">
+      <c r="J16" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="K16" s="39" t="s">
+      <c r="K16" s="37" t="s">
         <v>2</v>
       </c>
       <c r="M16" s="6" t="s">
@@ -2287,16 +2427,16 @@
       <c r="U16" s="8"/>
     </row>
     <row r="17" spans="8:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H17" s="40" t="s">
+      <c r="H17" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="I17" s="41" t="s">
+      <c r="I17" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="J17" s="41" t="s">
+      <c r="J17" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="K17" s="42" t="s">
+      <c r="K17" s="40" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2305,34 +2445,34 @@
         <v>56</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K18" s="5"/>
-      <c r="M18" s="26" t="s">
+      <c r="M18" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="N18" s="27"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="28"/>
-      <c r="R18" s="32" t="s">
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="26"/>
+      <c r="R18" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="S18" s="33"/>
-      <c r="T18" s="33"/>
-      <c r="U18" s="34"/>
+      <c r="S18" s="31"/>
+      <c r="T18" s="31"/>
+      <c r="U18" s="32"/>
     </row>
     <row r="19" spans="8:21" x14ac:dyDescent="0.25">
       <c r="H19" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K19" s="5"/>
       <c r="M19" s="3" t="s">
@@ -2361,14 +2501,14 @@
       </c>
     </row>
     <row r="20" spans="8:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H20" s="43" t="s">
-        <v>174</v>
+      <c r="H20" s="41" t="s">
+        <v>171</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K20" s="8"/>
       <c r="M20" s="3" t="s">
@@ -2397,54 +2537,54 @@
       </c>
     </row>
     <row r="21" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="M21" s="35" t="s">
+      <c r="M21" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="N21" s="19"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="36"/>
-      <c r="R21" s="23" t="s">
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="34"/>
+      <c r="R21" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="S21" s="24"/>
-      <c r="T21" s="24"/>
-      <c r="U21" s="25"/>
+      <c r="S21" s="22"/>
+      <c r="T21" s="22"/>
+      <c r="U21" s="23"/>
     </row>
     <row r="22" spans="8:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M22" s="14" t="s">
+      <c r="M22" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="N22" s="12" t="s">
+      <c r="N22" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="O22" s="12" t="s">
+      <c r="O22" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="P22" s="15" t="s">
+      <c r="P22" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="R22" s="14" t="s">
+      <c r="R22" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="S22" s="12" t="s">
+      <c r="S22" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="T22" s="12" t="s">
+      <c r="T22" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="U22" s="15" t="s">
+      <c r="U22" s="14" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H23" s="26" t="s">
+      <c r="H23" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="28"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="26"/>
       <c r="M23" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N23" s="1" t="s">
         <v>114</v>
@@ -2478,23 +2618,23 @@
         <v>49</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="P24" s="5"/>
       <c r="R24" s="3" t="s">
         <v>102</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="T24" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="U24" s="5"/>
     </row>
@@ -2512,69 +2652,69 @@
         <v>17</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P25" s="5"/>
       <c r="R25" s="3" t="s">
         <v>103</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="T25" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="U25" s="5"/>
     </row>
     <row r="26" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H26" s="35" t="s">
-        <v>172</v>
-      </c>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="36"/>
+      <c r="H26" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="34"/>
       <c r="M26" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N26" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="O26" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="P26" s="5"/>
       <c r="R26" s="3" t="s">
         <v>104</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="U26" s="5"/>
     </row>
     <row r="27" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H27" s="14" t="s">
+      <c r="H27" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="I27" s="12" t="s">
+      <c r="I27" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="J27" s="12" t="s">
+      <c r="J27" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="K27" s="15" t="s">
+      <c r="K27" s="14" t="s">
         <v>2</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
@@ -2600,7 +2740,7 @@
         <v>51</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
@@ -2617,14 +2757,14 @@
         <v>58</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K29" s="5"/>
       <c r="M29" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
@@ -2638,17 +2778,17 @@
     </row>
     <row r="30" spans="8:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H30" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K30" s="8"/>
       <c r="M30" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
@@ -2661,18 +2801,18 @@
       <c r="U30" s="5"/>
     </row>
     <row r="31" spans="8:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H31" s="43" t="s">
-        <v>173</v>
+      <c r="H31" s="41" t="s">
+        <v>170</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K31" s="8"/>
       <c r="M31" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
@@ -2686,7 +2826,7 @@
     </row>
     <row r="32" spans="8:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M32" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N32" s="7"/>
       <c r="O32" s="7"/>
@@ -2700,18 +2840,18 @@
     </row>
     <row r="33" spans="8:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="8:34" x14ac:dyDescent="0.25">
-      <c r="H34" s="26" t="s">
+      <c r="H34" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="28"/>
-      <c r="M34" s="20" t="s">
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="26"/>
+      <c r="M34" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="N34" s="21"/>
-      <c r="O34" s="21"/>
-      <c r="P34" s="22"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="20"/>
     </row>
     <row r="35" spans="8:34" x14ac:dyDescent="0.25">
       <c r="H35" s="3" t="s">
@@ -2766,42 +2906,42 @@
       </c>
     </row>
     <row r="37" spans="8:34" x14ac:dyDescent="0.25">
-      <c r="H37" s="35" t="s">
-        <v>166</v>
-      </c>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="36"/>
-      <c r="M37" s="23" t="s">
+      <c r="H37" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="34"/>
+      <c r="M37" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="N37" s="24"/>
-      <c r="O37" s="24"/>
-      <c r="P37" s="25"/>
+      <c r="N37" s="22"/>
+      <c r="O37" s="22"/>
+      <c r="P37" s="23"/>
     </row>
     <row r="38" spans="8:34" x14ac:dyDescent="0.25">
-      <c r="H38" s="37" t="s">
+      <c r="H38" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="I38" s="38" t="s">
+      <c r="I38" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="J38" s="38" t="s">
+      <c r="J38" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="K38" s="39" t="s">
+      <c r="K38" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="M38" s="14" t="s">
+      <c r="M38" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="N38" s="12" t="s">
+      <c r="N38" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="O38" s="12" t="s">
+      <c r="O38" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="P38" s="15" t="s">
+      <c r="P38" s="14" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2835,23 +2975,23 @@
     </row>
     <row r="40" spans="8:34" x14ac:dyDescent="0.25">
       <c r="H40" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K40" s="5"/>
       <c r="M40" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N40" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="P40" s="5"/>
       <c r="AE40" s="9"/>
@@ -2861,23 +3001,23 @@
     </row>
     <row r="41" spans="8:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H41" s="6" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K41" s="8"/>
       <c r="M41" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N41" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P41" s="5"/>
       <c r="AE41" s="9"/>
@@ -2887,23 +3027,23 @@
     </row>
     <row r="42" spans="8:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H42" s="6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K42" s="8"/>
       <c r="M42" s="3" t="s">
         <v>67</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P42" s="5"/>
       <c r="AE42" s="9"/>
@@ -2916,10 +3056,10 @@
         <v>68</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P43" s="5"/>
       <c r="AE43" s="9"/>
@@ -2932,10 +3072,10 @@
         <v>69</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P44" s="5"/>
       <c r="AE44" s="9"/>
@@ -3017,10 +3157,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{342D4D11-F3F1-4BBC-958C-BAEB76AFD1FE}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3030,92 +3170,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>118</v>
+      <c r="A2" s="15" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="16"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="46" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
         <v>154</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="B6" s="18"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="B9" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>156</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>136</v>
+      <c r="A15" s="15" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -3127,8 +3259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F777CBB-2556-4F1C-A288-849AD6A03688}">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3139,377 +3271,377 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B2" s="43" t="s">
         <v>176</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C2" s="43" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
+    <row r="3" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="43" t="s">
         <v>178</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B3" s="43" t="s">
         <v>179</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C3" s="43" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45" t="s">
+    <row r="4" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="43" t="s">
         <v>181</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B4" s="43" t="s">
         <v>182</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C4" s="43" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="45" t="s">
+    <row r="5" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="43" t="s">
         <v>184</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B5" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C5" s="43" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="45" t="s">
+    <row r="6" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="43" t="s">
         <v>187</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B6" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="43" t="s">
         <v>188</v>
       </c>
-      <c r="C5" s="45" t="s">
+    </row>
+    <row r="7" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="43" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="45" t="s">
+      <c r="B7" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="43" t="s">
         <v>190</v>
       </c>
-      <c r="B6" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="45" t="s">
+    </row>
+    <row r="8" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="43" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="45" t="s">
+      <c r="B8" s="43" t="s">
         <v>192</v>
       </c>
-      <c r="B7" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="45" t="s">
+      <c r="C8" s="43" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="45" t="s">
+    <row r="9" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="43" t="s">
         <v>194</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B9" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="43" t="s">
         <v>195</v>
       </c>
-      <c r="C8" s="45" t="s">
+    </row>
+    <row r="10" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="43" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="45" t="s">
+      <c r="B10" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="43" t="s">
         <v>197</v>
       </c>
-      <c r="B9" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="45" t="s">
+    </row>
+    <row r="11" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="43" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="45" t="s">
+      <c r="B11" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="43" t="s">
         <v>199</v>
       </c>
-      <c r="B10" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="45" t="s">
+    </row>
+    <row r="12" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="43" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="45" t="s">
+      <c r="B12" s="43" t="s">
         <v>201</v>
       </c>
-      <c r="B11" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="45" t="s">
+      <c r="C12" s="43" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="45" t="s">
+    <row r="13" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="43" t="s">
         <v>203</v>
       </c>
-      <c r="B12" s="45" t="s">
+      <c r="B13" s="43" t="s">
         <v>204</v>
       </c>
-      <c r="C12" s="45" t="s">
+      <c r="C13" s="43" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="45" t="s">
+    <row r="14" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="43" t="s">
         <v>206</v>
       </c>
-      <c r="B13" s="45" t="s">
+      <c r="B14" s="43" t="s">
         <v>207</v>
       </c>
-      <c r="C13" s="45" t="s">
+      <c r="C14" s="43" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="45" t="s">
+    <row r="15" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="43" t="s">
         <v>209</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B15" s="43" t="s">
         <v>210</v>
       </c>
-      <c r="C14" s="45" t="s">
+      <c r="C15" s="43" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="45" t="s">
+    <row r="16" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="43" t="s">
         <v>212</v>
       </c>
-      <c r="B15" s="45" t="s">
+      <c r="B16" s="43" t="s">
         <v>213</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="C16" s="43" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="45" t="s">
+    <row r="17" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="43" t="s">
         <v>215</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="B17" s="43" t="s">
         <v>216</v>
       </c>
-      <c r="C16" s="45" t="s">
+      <c r="C17" s="43" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="45" t="s">
+    <row r="18" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="43" t="s">
         <v>218</v>
       </c>
-      <c r="B17" s="45" t="s">
+      <c r="B18" s="43" t="s">
         <v>219</v>
       </c>
-      <c r="C17" s="45" t="s">
+      <c r="C18" s="43" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="45" t="s">
+    <row r="19" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="43" t="s">
         <v>221</v>
       </c>
-      <c r="B18" s="45" t="s">
+      <c r="B19" s="43" t="s">
         <v>222</v>
       </c>
-      <c r="C18" s="45" t="s">
+      <c r="C19" s="43" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="45" t="s">
+    <row r="20" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="43" t="s">
         <v>224</v>
       </c>
-      <c r="B19" s="45" t="s">
+      <c r="B20" s="43" t="s">
         <v>225</v>
       </c>
-      <c r="C19" s="45" t="s">
+      <c r="C20" s="43" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="45" t="s">
+    <row r="21" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="43" t="s">
         <v>227</v>
       </c>
-      <c r="B20" s="45" t="s">
+      <c r="B21" s="43" t="s">
         <v>228</v>
       </c>
-      <c r="C20" s="45" t="s">
+      <c r="C21" s="43" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="45" t="s">
+    <row r="22" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="43" t="s">
         <v>230</v>
       </c>
-      <c r="B21" s="45" t="s">
+      <c r="B22" s="43" t="s">
         <v>231</v>
       </c>
-      <c r="C21" s="45" t="s">
+      <c r="C22" s="43" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="45" t="s">
+    <row r="23" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="43" t="s">
         <v>233</v>
       </c>
-      <c r="B22" s="45" t="s">
+      <c r="B23" s="43" t="s">
         <v>234</v>
       </c>
-      <c r="C22" s="45" t="s">
+      <c r="C23" s="43" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="45" t="s">
+    <row r="24" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="43" t="s">
         <v>236</v>
       </c>
-      <c r="B23" s="45" t="s">
+      <c r="B24" s="43" t="s">
         <v>237</v>
       </c>
-      <c r="C23" s="45" t="s">
+      <c r="C24" s="43" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="45" t="s">
+    <row r="25" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="43" t="s">
         <v>239</v>
       </c>
-      <c r="B24" s="45" t="s">
+      <c r="B25" s="43" t="s">
         <v>240</v>
       </c>
-      <c r="C24" s="45" t="s">
+      <c r="C25" s="43" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="45" t="s">
+    <row r="26" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="43" t="s">
         <v>242</v>
       </c>
-      <c r="B25" s="45" t="s">
+      <c r="B26" s="43" t="s">
         <v>243</v>
       </c>
-      <c r="C25" s="45" t="s">
+      <c r="C26" s="43" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="45" t="s">
+    <row r="27" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="43" t="s">
         <v>245</v>
       </c>
-      <c r="B26" s="45" t="s">
+      <c r="B27" s="43" t="s">
         <v>246</v>
       </c>
-      <c r="C26" s="45" t="s">
+      <c r="C27" s="43" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="45" t="s">
+    <row r="28" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="43" t="s">
         <v>248</v>
       </c>
-      <c r="B27" s="45" t="s">
+      <c r="B28" s="43" t="s">
         <v>249</v>
       </c>
-      <c r="C27" s="45" t="s">
+      <c r="C28" s="43" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="45" t="s">
+    <row r="29" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="43" t="s">
         <v>251</v>
       </c>
-      <c r="B28" s="45" t="s">
+      <c r="B29" s="43" t="s">
         <v>252</v>
       </c>
-      <c r="C28" s="45" t="s">
+      <c r="C29" s="43" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="45" t="s">
+    <row r="30" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="43" t="s">
         <v>254</v>
       </c>
-      <c r="B29" s="45" t="s">
+      <c r="B30" s="43" t="s">
         <v>255</v>
       </c>
-      <c r="C29" s="45" t="s">
+      <c r="C30" s="43" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="45" t="s">
+    <row r="31" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="43" t="s">
         <v>257</v>
       </c>
-      <c r="B30" s="45" t="s">
+      <c r="B31" s="43" t="s">
         <v>258</v>
       </c>
-      <c r="C30" s="45" t="s">
+      <c r="C31" s="43" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="45" t="s">
+    <row r="32" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="43" t="s">
         <v>260</v>
       </c>
-      <c r="B31" s="45" t="s">
+      <c r="B32" s="43" t="s">
         <v>261</v>
       </c>
-      <c r="C31" s="45" t="s">
+      <c r="C32" s="43" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="45" t="s">
+    <row r="33" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="43" t="s">
         <v>263</v>
       </c>
-      <c r="B32" s="45" t="s">
+      <c r="B33" s="43" t="s">
         <v>264</v>
       </c>
-      <c r="C32" s="45" t="s">
+      <c r="C33" s="43" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="45" t="s">
+    <row r="34" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="43" t="s">
         <v>266</v>
       </c>
-      <c r="B33" s="45" t="s">
-        <v>267</v>
-      </c>
-      <c r="C33" s="45" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="45" t="s">
-        <v>269</v>
-      </c>
-      <c r="B34" s="45" t="s">
-        <v>180</v>
-      </c>
-      <c r="C34" s="45" t="s">
-        <v>179</v>
+      <c r="B34" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="C34" s="43" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -3519,18 +3651,366 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A152199E-21C3-40A8-8802-9AB6DD02800C}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="51.85546875" customWidth="1"/>
+    <col min="2" max="3" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>119</v>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C4" t="s">
+        <v>270</v>
+      </c>
+      <c r="D4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B5" t="s">
+        <v>289</v>
+      </c>
+      <c r="C5" t="s">
+        <v>293</v>
+      </c>
+      <c r="D5" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>272</v>
+      </c>
+      <c r="B6" t="s">
+        <v>272</v>
+      </c>
+      <c r="C6" t="s">
+        <v>272</v>
+      </c>
+      <c r="D6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>273</v>
+      </c>
+      <c r="B7" t="s">
+        <v>273</v>
+      </c>
+      <c r="C7" t="s">
+        <v>294</v>
+      </c>
+      <c r="D7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>274</v>
+      </c>
+      <c r="B8" t="s">
+        <v>274</v>
+      </c>
+      <c r="C8" t="s">
+        <v>295</v>
+      </c>
+      <c r="D8" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>275</v>
+      </c>
+      <c r="B9" t="s">
+        <v>275</v>
+      </c>
+      <c r="C9" t="s">
+        <v>268</v>
+      </c>
+      <c r="D9" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>276</v>
+      </c>
+      <c r="B10" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>277</v>
+      </c>
+      <c r="B11" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>268</v>
+      </c>
+      <c r="B15" t="s">
+        <v>268</v>
+      </c>
+      <c r="C15" t="s">
+        <v>268</v>
+      </c>
+      <c r="D15" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>278</v>
+      </c>
+      <c r="B16" t="s">
+        <v>278</v>
+      </c>
+      <c r="C16" t="s">
+        <v>278</v>
+      </c>
+      <c r="D16" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>279</v>
+      </c>
+      <c r="B17" t="s">
+        <v>279</v>
+      </c>
+      <c r="C17" t="s">
+        <v>279</v>
+      </c>
+      <c r="D17" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>280</v>
+      </c>
+      <c r="B18" t="s">
+        <v>286</v>
+      </c>
+      <c r="C18" t="s">
+        <v>290</v>
+      </c>
+      <c r="D18" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>281</v>
+      </c>
+      <c r="B19" t="s">
+        <v>281</v>
+      </c>
+      <c r="C19" t="s">
+        <v>281</v>
+      </c>
+      <c r="D19" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>268</v>
+      </c>
+      <c r="B20" t="s">
+        <v>268</v>
+      </c>
+      <c r="C20" t="s">
+        <v>268</v>
+      </c>
+      <c r="D20" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>282</v>
+      </c>
+      <c r="B21" t="s">
+        <v>282</v>
+      </c>
+      <c r="C21" t="s">
+        <v>282</v>
+      </c>
+      <c r="D21" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>279</v>
+      </c>
+      <c r="B22" t="s">
+        <v>279</v>
+      </c>
+      <c r="C22" t="s">
+        <v>279</v>
+      </c>
+      <c r="D22" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>283</v>
+      </c>
+      <c r="B23" t="s">
+        <v>287</v>
+      </c>
+      <c r="C23" t="s">
+        <v>291</v>
+      </c>
+      <c r="D23" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>281</v>
+      </c>
+      <c r="B24" t="s">
+        <v>281</v>
+      </c>
+      <c r="C24" t="s">
+        <v>281</v>
+      </c>
+      <c r="D24" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>268</v>
+      </c>
+      <c r="B25" t="s">
+        <v>268</v>
+      </c>
+      <c r="C25" t="s">
+        <v>268</v>
+      </c>
+      <c r="D25" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>284</v>
+      </c>
+      <c r="B26" t="s">
+        <v>284</v>
+      </c>
+      <c r="C26" t="s">
+        <v>284</v>
+      </c>
+      <c r="D26" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>279</v>
+      </c>
+      <c r="B27" t="s">
+        <v>279</v>
+      </c>
+      <c r="C27" t="s">
+        <v>279</v>
+      </c>
+      <c r="D27" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>285</v>
+      </c>
+      <c r="B28" t="s">
+        <v>288</v>
+      </c>
+      <c r="C28" t="s">
+        <v>292</v>
+      </c>
+      <c r="D28" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>281</v>
+      </c>
+      <c r="B29" t="s">
+        <v>281</v>
+      </c>
+      <c r="C29" t="s">
+        <v>281</v>
+      </c>
+      <c r="D29" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>268</v>
+      </c>
+      <c r="B30" t="s">
+        <v>268</v>
+      </c>
+      <c r="C30" t="s">
+        <v>268</v>
+      </c>
+      <c r="D30" t="s">
+        <v>268</v>
       </c>
     </row>
   </sheetData>
